--- a/Excel/countries.xlsx
+++ b/Excel/countries.xlsx
@@ -82,30 +82,15 @@
     <t>Angleterre</t>
   </si>
   <si>
-    <t>République des Deux Nations</t>
-  </si>
-  <si>
     <t>Dai Viet</t>
   </si>
   <si>
-    <t>Empire chérifien</t>
-  </si>
-  <si>
-    <t>Népal</t>
-  </si>
-  <si>
-    <t>Suède</t>
-  </si>
-  <si>
     <t>Siam</t>
   </si>
   <si>
     <t>Royaume de Portugal</t>
   </si>
   <si>
-    <t>République de Venise</t>
-  </si>
-  <si>
     <t>Province-Unies</t>
   </si>
   <si>
@@ -118,18 +103,9 @@
     <t>Etats de Savoie</t>
   </si>
   <si>
-    <t>Danemark-Norvège</t>
-  </si>
-  <si>
-    <t>Confédération Suisse</t>
-  </si>
-  <si>
     <t>Khanat dzoungar</t>
   </si>
   <si>
-    <t>Grand-duché de Toscane</t>
-  </si>
-  <si>
     <t>Royaume du Kongo</t>
   </si>
   <si>
@@ -139,10 +115,34 @@
     <t>Royaume de Ryukyu</t>
   </si>
   <si>
-    <t>Ordre de Saint-Jean de Jérusalem</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Asie</t>
+  </si>
+  <si>
+    <t>Republique des Deux Nations</t>
+  </si>
+  <si>
+    <t>Empire cherifien</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Suede</t>
+  </si>
+  <si>
+    <t>Republique de Venise</t>
+  </si>
+  <si>
+    <t>Danemark-Norvege</t>
+  </si>
+  <si>
+    <t>Confederation Suisse</t>
+  </si>
+  <si>
+    <t>Grand-duche de Toscane</t>
+  </si>
+  <si>
+    <t>Ordre de Saint-Jean de Jerusalem</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,7 +497,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
